--- a/public/templates/bulk-user-import-template.xlsx
+++ b/public/templates/bulk-user-import-template.xlsx
@@ -397,15 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -416,9 +415,6 @@
         <v>email</v>
       </c>
       <c r="C1" t="str">
-        <v>password</v>
-      </c>
-      <c r="D1" t="str">
         <v>role</v>
       </c>
     </row>
@@ -430,9 +426,6 @@
         <v>john.doe@example.com</v>
       </c>
       <c r="C2" t="str">
-        <v>password123</v>
-      </c>
-      <c r="D2" t="str">
         <v>STUDENT</v>
       </c>
     </row>
@@ -444,9 +437,6 @@
         <v>jane.smith@example.com</v>
       </c>
       <c r="C3" t="str">
-        <v>password123</v>
-      </c>
-      <c r="D3" t="str">
         <v>INSTRUCTOR</v>
       </c>
     </row>
@@ -458,9 +448,6 @@
         <v>mike.johnson@example.com</v>
       </c>
       <c r="C4" t="str">
-        <v>password123</v>
-      </c>
-      <c r="D4" t="str">
         <v>STUDENT</v>
       </c>
     </row>
@@ -472,15 +459,12 @@
         <v>sarah.williams@example.com</v>
       </c>
       <c r="C5" t="str">
-        <v>password123</v>
-      </c>
-      <c r="D5" t="str">
         <v>MODERATOR</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/templates/bulk-user-import-template.xlsx
+++ b/public/templates/bulk-user-import-template.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +420,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>John Doe</v>
+        <v>Ismat Samadov</v>
       </c>
       <c r="B2" t="str">
-        <v>john.doe@example.com</v>
+        <v>ismetsemedov@gmail.com</v>
       </c>
       <c r="C2" t="str">
         <v>STUDENT</v>
@@ -431,40 +431,29 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Jane Smith</v>
+        <v>John Doe</v>
       </c>
       <c r="B3" t="str">
-        <v>jane.smith@example.com</v>
+        <v>john.doe@example.com</v>
       </c>
       <c r="C3" t="str">
-        <v>INSTRUCTOR</v>
+        <v>STUDENT</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Mike Johnson</v>
+        <v>Jane Smith</v>
       </c>
       <c r="B4" t="str">
-        <v>mike.johnson@example.com</v>
+        <v>jane.smith@example.com</v>
       </c>
       <c r="C4" t="str">
-        <v>STUDENT</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Sarah Williams</v>
-      </c>
-      <c r="B5" t="str">
-        <v>sarah.williams@example.com</v>
-      </c>
-      <c r="C5" t="str">
-        <v>MODERATOR</v>
+        <v>INSTRUCTOR</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/templates/bulk-user-import-template.xlsx
+++ b/public/templates/bulk-user-import-template.xlsx
@@ -420,10 +420,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Ismat Samadov</v>
+        <v>Example Student</v>
       </c>
       <c r="B2" t="str">
-        <v>ismetsemedov@gmail.com</v>
+        <v>student@yourdomain.com</v>
       </c>
       <c r="C2" t="str">
         <v>STUDENT</v>
@@ -431,24 +431,24 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>John Doe</v>
+        <v>Example Instructor</v>
       </c>
       <c r="B3" t="str">
-        <v>john.doe@example.com</v>
+        <v>instructor@yourdomain.com</v>
       </c>
       <c r="C3" t="str">
-        <v>STUDENT</v>
+        <v>INSTRUCTOR</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Jane Smith</v>
+        <v>Example Moderator</v>
       </c>
       <c r="B4" t="str">
-        <v>jane.smith@example.com</v>
+        <v>moderator@yourdomain.com</v>
       </c>
       <c r="C4" t="str">
-        <v>INSTRUCTOR</v>
+        <v>MODERATOR</v>
       </c>
     </row>
   </sheetData>
